--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My DATA\program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA43CD4-46E7-4D8B-BAEB-19C6E4959064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D39B83A-D214-49F6-8971-5A6B25F92BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HDPE" sheetId="1" r:id="rId1"/>
-    <sheet name="uPVC" sheetId="2" r:id="rId2"/>
+    <sheet name="UPVC" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HDPE!$A$1:$E$241</definedName>
@@ -4598,7 +4598,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My DATA\program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D39B83A-D214-49F6-8971-5A6B25F92BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB77959-C80B-45C3-90B4-BF1E0C88A71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HDPE" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="15">
   <si>
     <t>Diameter</t>
   </si>
@@ -84,151 +84,11 @@
     <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2008</t>
   </si>
   <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2009</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2010</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2011</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2012</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2013</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2014</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2015</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2016</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2017</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2018</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2019</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2020</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2021</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2022</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2023</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2024</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2025</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2026</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2027</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2028</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2029</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2030</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2031</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2032</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2033</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2034</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2035</t>
-  </si>
-  <si>
-    <t>ISO EN 1452-2(2009) and Egyptian standards 848-1/2036</t>
-  </si>
-  <si>
     <t>ISO4435, EN 1401, and Egyptian
 standard1717/2008</t>
   </si>
   <si>
     <t>Sewer</t>
-  </si>
-  <si>
-    <t>ISO4435, EN 1401, and Egyptian
-standard1717/2009</t>
-  </si>
-  <si>
-    <t>ISO4435, EN 1401, and Egyptian
-standard1717/2010</t>
-  </si>
-  <si>
-    <t>ISO4435, EN 1401, and Egyptian
-standard1717/2011</t>
-  </si>
-  <si>
-    <t>ISO4435, EN 1401, and Egyptian
-standard1717/2012</t>
-  </si>
-  <si>
-    <t>ISO4435, EN 1401, and Egyptian
-standard1717/2013</t>
-  </si>
-  <si>
-    <t>ISO4435, EN 1401, and Egyptian
-standard1717/2014</t>
-  </si>
-  <si>
-    <t>ISO4435, EN 1401, and Egyptian
-standard1717/2015</t>
-  </si>
-  <si>
-    <t>ISO4435, EN 1401, and Egyptian
-standard1717/2016</t>
-  </si>
-  <si>
-    <t>ISO4435, EN 1401, and Egyptian
-standard1717/2017</t>
-  </si>
-  <si>
-    <t>ISO4435, EN 1401, and Egyptian
-standard1717/2018</t>
-  </si>
-  <si>
-    <t>ISO4435, EN 1401, and Egyptian
-standard1717/2019</t>
-  </si>
-  <si>
-    <t>ISO4435, EN 1401, and Egyptian
-standard1717/2020</t>
-  </si>
-  <si>
-    <t>ISO4435, EN 1401, and Egyptian
-standard1717/2021</t>
-  </si>
-  <si>
-    <t>ISO4435, EN 1401, and Egyptian
-standard1717/2022</t>
   </si>
 </sst>
 </file>
@@ -4597,8 +4457,8 @@
   <dimension ref="A1:H651"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <pane ySplit="1" topLeftCell="A607" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M613" sqref="M613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1"/>
@@ -11516,7 +11376,7 @@
         <v>9</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D405">
         <v>5</v>
@@ -11533,7 +11393,7 @@
         <v>9</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D406">
         <v>5</v>
@@ -11550,7 +11410,7 @@
         <v>9</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D407">
         <v>5</v>
@@ -11567,7 +11427,7 @@
         <v>9</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D408">
         <v>5</v>
@@ -11587,7 +11447,7 @@
         <v>9</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D409">
         <v>5</v>
@@ -11607,7 +11467,7 @@
         <v>9</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D410">
         <v>5</v>
@@ -11644,7 +11504,7 @@
         <v>9</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D412">
         <v>6</v>
@@ -11661,7 +11521,7 @@
         <v>9</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D413">
         <v>6</v>
@@ -11678,7 +11538,7 @@
         <v>9</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D414">
         <v>6</v>
@@ -11698,7 +11558,7 @@
         <v>9</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D415">
         <v>6</v>
@@ -11718,7 +11578,7 @@
         <v>9</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D416">
         <v>6</v>
@@ -11738,7 +11598,7 @@
         <v>9</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D417">
         <v>6</v>
@@ -11775,7 +11635,7 @@
         <v>9</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D419">
         <v>8</v>
@@ -11792,7 +11652,7 @@
         <v>9</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D420">
         <v>8</v>
@@ -11812,7 +11672,7 @@
         <v>9</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D421">
         <v>8</v>
@@ -11832,7 +11692,7 @@
         <v>9</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D422">
         <v>8</v>
@@ -11852,7 +11712,7 @@
         <v>9</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D423">
         <v>8</v>
@@ -11872,7 +11732,7 @@
         <v>9</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D424">
         <v>8</v>
@@ -11909,7 +11769,7 @@
         <v>9</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D426">
         <v>10</v>
@@ -11929,7 +11789,7 @@
         <v>9</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D427">
         <v>10</v>
@@ -11949,7 +11809,7 @@
         <v>9</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D428">
         <v>10</v>
@@ -11969,7 +11829,7 @@
         <v>9</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D429">
         <v>10</v>
@@ -11989,7 +11849,7 @@
         <v>9</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D430">
         <v>10</v>
@@ -12009,7 +11869,7 @@
         <v>9</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D431">
         <v>10</v>
@@ -12049,7 +11909,7 @@
         <v>9</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D433">
         <v>12.5</v>
@@ -12069,7 +11929,7 @@
         <v>9</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D434">
         <v>12.5</v>
@@ -12089,7 +11949,7 @@
         <v>9</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D435">
         <v>12.5</v>
@@ -12109,7 +11969,7 @@
         <v>9</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D436">
         <v>12.5</v>
@@ -12129,7 +11989,7 @@
         <v>9</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D437">
         <v>12.5</v>
@@ -12149,7 +12009,7 @@
         <v>9</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D438">
         <v>12.5</v>
@@ -12189,7 +12049,7 @@
         <v>9</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D440">
         <v>16</v>
@@ -12209,7 +12069,7 @@
         <v>9</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D441">
         <v>16</v>
@@ -12229,7 +12089,7 @@
         <v>9</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D442">
         <v>16</v>
@@ -12249,7 +12109,7 @@
         <v>9</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D443">
         <v>16</v>
@@ -12269,7 +12129,7 @@
         <v>9</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D444">
         <v>16</v>
@@ -12289,7 +12149,7 @@
         <v>9</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D445">
         <v>16</v>
@@ -12329,7 +12189,7 @@
         <v>9</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D447">
         <v>20</v>
@@ -12349,7 +12209,7 @@
         <v>9</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D448">
         <v>20</v>
@@ -12369,7 +12229,7 @@
         <v>9</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D449">
         <v>20</v>
@@ -12389,7 +12249,7 @@
         <v>9</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D450">
         <v>20</v>
@@ -12409,7 +12269,7 @@
         <v>9</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D451">
         <v>20</v>
@@ -12429,7 +12289,7 @@
         <v>9</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D452">
         <v>20</v>
@@ -12449,7 +12309,7 @@
         <v>9</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D453">
         <v>6</v>
@@ -12469,7 +12329,7 @@
         <v>9</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D454">
         <v>6</v>
@@ -12489,7 +12349,7 @@
         <v>9</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D455">
         <v>6</v>
@@ -12509,7 +12369,7 @@
         <v>9</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D456">
         <v>6</v>
@@ -12529,7 +12389,7 @@
         <v>9</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D457">
         <v>6</v>
@@ -12549,7 +12409,7 @@
         <v>9</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D458">
         <v>6</v>
@@ -12569,7 +12429,7 @@
         <v>9</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D459">
         <v>6</v>
@@ -12589,7 +12449,7 @@
         <v>9</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D460">
         <v>6</v>
@@ -12609,7 +12469,7 @@
         <v>9</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D461">
         <v>6</v>
@@ -12629,7 +12489,7 @@
         <v>9</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D462">
         <v>6</v>
@@ -12649,7 +12509,7 @@
         <v>9</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D463">
         <v>6</v>
@@ -12669,7 +12529,7 @@
         <v>9</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D464">
         <v>6</v>
@@ -12689,7 +12549,7 @@
         <v>9</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D465">
         <v>6</v>
@@ -12709,7 +12569,7 @@
         <v>9</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D466">
         <v>6</v>
@@ -12729,7 +12589,7 @@
         <v>9</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D467">
         <v>6</v>
@@ -12749,7 +12609,7 @@
         <v>9</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D468">
         <v>6</v>
@@ -12769,7 +12629,7 @@
         <v>9</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D469">
         <v>6</v>
@@ -12789,7 +12649,7 @@
         <v>9</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D470">
         <v>6</v>
@@ -12809,7 +12669,7 @@
         <v>9</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D471">
         <v>6</v>
@@ -12829,7 +12689,7 @@
         <v>9</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D472">
         <v>6</v>
@@ -12849,7 +12709,7 @@
         <v>9</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D473">
         <v>6</v>
@@ -12869,7 +12729,7 @@
         <v>9</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D474">
         <v>6</v>
@@ -12889,7 +12749,7 @@
         <v>9</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D475">
         <v>8</v>
@@ -12909,7 +12769,7 @@
         <v>9</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D476">
         <v>8</v>
@@ -12929,7 +12789,7 @@
         <v>9</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D477">
         <v>8</v>
@@ -12949,7 +12809,7 @@
         <v>9</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D478">
         <v>8</v>
@@ -12969,7 +12829,7 @@
         <v>9</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D479">
         <v>8</v>
@@ -12989,7 +12849,7 @@
         <v>9</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D480">
         <v>8</v>
@@ -13009,7 +12869,7 @@
         <v>9</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D481">
         <v>8</v>
@@ -13029,7 +12889,7 @@
         <v>9</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D482">
         <v>8</v>
@@ -13049,7 +12909,7 @@
         <v>9</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D483">
         <v>8</v>
@@ -13069,7 +12929,7 @@
         <v>9</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D484">
         <v>8</v>
@@ -13089,7 +12949,7 @@
         <v>9</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D485">
         <v>8</v>
@@ -13109,7 +12969,7 @@
         <v>9</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D486">
         <v>8</v>
@@ -13129,7 +12989,7 @@
         <v>9</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D487">
         <v>8</v>
@@ -13149,7 +13009,7 @@
         <v>9</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D488">
         <v>8</v>
@@ -13169,7 +13029,7 @@
         <v>9</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D489">
         <v>8</v>
@@ -13189,7 +13049,7 @@
         <v>9</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D490">
         <v>8</v>
@@ -13209,7 +13069,7 @@
         <v>9</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D491">
         <v>8</v>
@@ -13229,7 +13089,7 @@
         <v>9</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D492">
         <v>8</v>
@@ -13249,7 +13109,7 @@
         <v>9</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D493">
         <v>8</v>
@@ -13269,7 +13129,7 @@
         <v>9</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D494">
         <v>8</v>
@@ -13289,7 +13149,7 @@
         <v>9</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D495">
         <v>8</v>
@@ -13303,7 +13163,7 @@
         <v>9</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D496">
         <v>8</v>
@@ -13317,7 +13177,7 @@
         <v>9</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D497">
         <v>10</v>
@@ -13337,7 +13197,7 @@
         <v>9</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D498">
         <v>10</v>
@@ -13357,7 +13217,7 @@
         <v>9</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D499">
         <v>10</v>
@@ -13377,7 +13237,7 @@
         <v>9</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D500">
         <v>10</v>
@@ -13397,7 +13257,7 @@
         <v>9</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D501">
         <v>10</v>
@@ -13417,7 +13277,7 @@
         <v>9</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D502">
         <v>10</v>
@@ -13437,7 +13297,7 @@
         <v>9</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D503">
         <v>10</v>
@@ -13457,7 +13317,7 @@
         <v>9</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D504">
         <v>10</v>
@@ -13477,7 +13337,7 @@
         <v>9</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D505">
         <v>10</v>
@@ -13497,7 +13357,7 @@
         <v>9</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D506">
         <v>10</v>
@@ -13517,7 +13377,7 @@
         <v>9</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D507">
         <v>10</v>
@@ -13537,7 +13397,7 @@
         <v>9</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D508">
         <v>10</v>
@@ -13557,7 +13417,7 @@
         <v>9</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D509">
         <v>10</v>
@@ -13577,7 +13437,7 @@
         <v>9</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D510">
         <v>10</v>
@@ -13597,7 +13457,7 @@
         <v>9</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D511">
         <v>10</v>
@@ -13617,7 +13477,7 @@
         <v>9</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D512">
         <v>10</v>
@@ -13637,7 +13497,7 @@
         <v>9</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D513">
         <v>10</v>
@@ -13657,7 +13517,7 @@
         <v>9</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D514">
         <v>10</v>
@@ -13677,7 +13537,7 @@
         <v>9</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D515">
         <v>10</v>
@@ -13697,7 +13557,7 @@
         <v>9</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D516">
         <v>10</v>
@@ -13711,7 +13571,7 @@
         <v>9</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D517">
         <v>10</v>
@@ -13725,7 +13585,7 @@
         <v>9</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D518">
         <v>10</v>
@@ -13739,7 +13599,7 @@
         <v>9</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D519">
         <v>12.5</v>
@@ -13759,7 +13619,7 @@
         <v>9</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D520">
         <v>12.5</v>
@@ -13779,7 +13639,7 @@
         <v>9</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D521">
         <v>12.5</v>
@@ -13799,7 +13659,7 @@
         <v>9</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D522">
         <v>12.5</v>
@@ -13819,7 +13679,7 @@
         <v>9</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D523">
         <v>12.5</v>
@@ -13839,7 +13699,7 @@
         <v>9</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D524">
         <v>12.5</v>
@@ -13859,7 +13719,7 @@
         <v>9</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D525">
         <v>12.5</v>
@@ -13879,7 +13739,7 @@
         <v>9</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D526">
         <v>12.5</v>
@@ -13899,7 +13759,7 @@
         <v>9</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D527">
         <v>12.5</v>
@@ -13919,7 +13779,7 @@
         <v>9</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D528">
         <v>12.5</v>
@@ -13939,7 +13799,7 @@
         <v>9</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D529">
         <v>12.5</v>
@@ -13959,7 +13819,7 @@
         <v>9</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D530">
         <v>12.5</v>
@@ -13979,7 +13839,7 @@
         <v>9</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D531">
         <v>12.5</v>
@@ -13999,7 +13859,7 @@
         <v>9</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D532">
         <v>12.5</v>
@@ -14019,7 +13879,7 @@
         <v>9</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D533">
         <v>12.5</v>
@@ -14039,7 +13899,7 @@
         <v>9</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D534">
         <v>12.5</v>
@@ -14059,7 +13919,7 @@
         <v>9</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D535">
         <v>12.5</v>
@@ -14073,7 +13933,7 @@
         <v>9</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D536">
         <v>12.5</v>
@@ -14087,7 +13947,7 @@
         <v>9</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D537">
         <v>12.5</v>
@@ -14101,7 +13961,7 @@
         <v>9</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D538">
         <v>12.5</v>
@@ -14115,7 +13975,7 @@
         <v>9</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D539">
         <v>12.5</v>
@@ -14129,7 +13989,7 @@
         <v>9</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D540">
         <v>12.5</v>
@@ -14143,7 +14003,7 @@
         <v>9</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D541">
         <v>16</v>
@@ -14163,7 +14023,7 @@
         <v>9</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D542">
         <v>16</v>
@@ -14183,7 +14043,7 @@
         <v>9</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D543">
         <v>16</v>
@@ -14203,7 +14063,7 @@
         <v>9</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D544">
         <v>16</v>
@@ -14223,7 +14083,7 @@
         <v>9</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D545">
         <v>16</v>
@@ -14243,7 +14103,7 @@
         <v>9</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D546">
         <v>16</v>
@@ -14263,7 +14123,7 @@
         <v>9</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D547">
         <v>16</v>
@@ -14283,7 +14143,7 @@
         <v>9</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D548">
         <v>16</v>
@@ -14303,7 +14163,7 @@
         <v>9</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D549">
         <v>16</v>
@@ -14323,7 +14183,7 @@
         <v>9</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D550">
         <v>16</v>
@@ -14343,7 +14203,7 @@
         <v>9</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D551">
         <v>16</v>
@@ -14363,7 +14223,7 @@
         <v>9</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D552">
         <v>16</v>
@@ -14383,7 +14243,7 @@
         <v>9</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D553">
         <v>16</v>
@@ -14403,7 +14263,7 @@
         <v>9</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D554">
         <v>16</v>
@@ -14423,7 +14283,7 @@
         <v>9</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D555">
         <v>16</v>
@@ -14440,7 +14300,7 @@
         <v>9</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D556">
         <v>16</v>
@@ -14457,7 +14317,7 @@
         <v>9</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D557">
         <v>16</v>
@@ -14474,7 +14334,7 @@
         <v>9</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D558">
         <v>16</v>
@@ -14491,7 +14351,7 @@
         <v>9</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D559">
         <v>16</v>
@@ -14508,7 +14368,7 @@
         <v>9</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D560">
         <v>16</v>
@@ -14525,7 +14385,7 @@
         <v>9</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D561">
         <v>16</v>
@@ -14542,7 +14402,7 @@
         <v>9</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D562">
         <v>16</v>
@@ -14559,7 +14419,7 @@
         <v>9</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D563">
         <v>20</v>
@@ -14579,7 +14439,7 @@
         <v>9</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D564">
         <v>20</v>
@@ -14599,7 +14459,7 @@
         <v>9</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D565">
         <v>20</v>
@@ -14619,7 +14479,7 @@
         <v>9</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D566">
         <v>20</v>
@@ -14639,7 +14499,7 @@
         <v>9</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D567">
         <v>20</v>
@@ -14659,7 +14519,7 @@
         <v>9</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D568">
         <v>20</v>
@@ -14679,7 +14539,7 @@
         <v>9</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D569">
         <v>20</v>
@@ -14699,7 +14559,7 @@
         <v>9</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D570">
         <v>20</v>
@@ -14719,7 +14579,7 @@
         <v>9</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D571">
         <v>20</v>
@@ -14739,7 +14599,7 @@
         <v>9</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D572">
         <v>20</v>
@@ -14759,7 +14619,7 @@
         <v>9</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D573">
         <v>20</v>
@@ -14779,7 +14639,7 @@
         <v>9</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D574">
         <v>20</v>
@@ -14799,7 +14659,7 @@
         <v>9</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D575">
         <v>20</v>
@@ -14819,7 +14679,7 @@
         <v>9</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D576">
         <v>20</v>
@@ -14839,7 +14699,7 @@
         <v>9</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D577">
         <v>20</v>
@@ -14856,7 +14716,7 @@
         <v>9</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D578">
         <v>20</v>
@@ -14873,7 +14733,7 @@
         <v>9</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D579">
         <v>20</v>
@@ -14890,7 +14750,7 @@
         <v>9</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D580">
         <v>20</v>
@@ -14907,7 +14767,7 @@
         <v>9</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D581">
         <v>20</v>
@@ -14924,7 +14784,7 @@
         <v>9</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D582">
         <v>20</v>
@@ -14941,7 +14801,7 @@
         <v>9</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D583">
         <v>20</v>
@@ -14958,7 +14818,7 @@
         <v>9</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D584">
         <v>20</v>
@@ -14975,7 +14835,7 @@
         <v>9</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D585">
         <v>25</v>
@@ -14995,7 +14855,7 @@
         <v>9</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D586">
         <v>25</v>
@@ -15015,7 +14875,7 @@
         <v>9</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D587">
         <v>25</v>
@@ -15035,7 +14895,7 @@
         <v>9</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D588">
         <v>25</v>
@@ -15055,7 +14915,7 @@
         <v>9</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D589">
         <v>25</v>
@@ -15075,7 +14935,7 @@
         <v>9</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D590">
         <v>25</v>
@@ -15095,7 +14955,7 @@
         <v>9</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D591">
         <v>25</v>
@@ -15115,7 +14975,7 @@
         <v>9</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D592">
         <v>25</v>
@@ -15135,7 +14995,7 @@
         <v>9</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D593">
         <v>25</v>
@@ -15155,7 +15015,7 @@
         <v>9</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D594">
         <v>25</v>
@@ -15175,7 +15035,7 @@
         <v>9</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D595">
         <v>25</v>
@@ -15192,7 +15052,7 @@
         <v>9</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D596">
         <v>25</v>
@@ -15209,7 +15069,7 @@
         <v>9</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D597">
         <v>25</v>
@@ -15226,7 +15086,7 @@
         <v>9</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D598">
         <v>25</v>
@@ -15243,7 +15103,7 @@
         <v>9</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D599">
         <v>25</v>
@@ -15260,7 +15120,7 @@
         <v>9</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D600">
         <v>25</v>
@@ -15277,7 +15137,7 @@
         <v>9</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D601">
         <v>25</v>
@@ -15294,7 +15154,7 @@
         <v>9</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D602">
         <v>25</v>
@@ -15311,7 +15171,7 @@
         <v>9</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D603">
         <v>25</v>
@@ -15328,7 +15188,7 @@
         <v>9</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D604">
         <v>25</v>
@@ -15345,7 +15205,7 @@
         <v>9</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D605">
         <v>25</v>
@@ -15362,7 +15222,7 @@
         <v>9</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D606">
         <v>25</v>
@@ -15376,10 +15236,10 @@
         <v>110</v>
       </c>
       <c r="B607" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F607">
         <v>2</v>
@@ -15393,10 +15253,10 @@
         <v>125</v>
       </c>
       <c r="B608" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F608">
         <v>2</v>
@@ -15410,10 +15270,10 @@
         <v>160</v>
       </c>
       <c r="B609" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F609">
         <v>2</v>
@@ -15430,10 +15290,10 @@
         <v>200</v>
       </c>
       <c r="B610" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F610">
         <v>2</v>
@@ -15450,10 +15310,10 @@
         <v>250</v>
       </c>
       <c r="B611" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F611">
         <v>2</v>
@@ -15470,10 +15330,10 @@
         <v>315</v>
       </c>
       <c r="B612" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F612">
         <v>2</v>
@@ -15490,10 +15350,10 @@
         <v>355</v>
       </c>
       <c r="B613" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F613">
         <v>2</v>
@@ -15510,10 +15370,10 @@
         <v>400</v>
       </c>
       <c r="B614" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F614">
         <v>2</v>
@@ -15530,10 +15390,10 @@
         <v>450</v>
       </c>
       <c r="B615" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F615">
         <v>2</v>
@@ -15550,10 +15410,10 @@
         <v>500</v>
       </c>
       <c r="B616" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F616">
         <v>2</v>
@@ -15570,10 +15430,10 @@
         <v>630</v>
       </c>
       <c r="B617" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F617">
         <v>2</v>
@@ -15590,10 +15450,10 @@
         <v>710</v>
       </c>
       <c r="B618" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F618">
         <v>2</v>
@@ -15610,10 +15470,10 @@
         <v>800</v>
       </c>
       <c r="B619" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F619">
         <v>2</v>
@@ -15630,10 +15490,10 @@
         <v>900</v>
       </c>
       <c r="B620" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="F620">
         <v>2</v>
@@ -15650,10 +15510,10 @@
         <v>1000</v>
       </c>
       <c r="B621" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F621">
         <v>2</v>
@@ -15670,10 +15530,10 @@
         <v>110</v>
       </c>
       <c r="B622" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F622">
         <v>4</v>
@@ -15690,10 +15550,10 @@
         <v>125</v>
       </c>
       <c r="B623" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F623">
         <v>4</v>
@@ -15710,10 +15570,10 @@
         <v>160</v>
       </c>
       <c r="B624" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F624">
         <v>4</v>
@@ -15730,10 +15590,10 @@
         <v>200</v>
       </c>
       <c r="B625" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F625">
         <v>4</v>
@@ -15750,10 +15610,10 @@
         <v>250</v>
       </c>
       <c r="B626" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F626">
         <v>4</v>
@@ -15770,10 +15630,10 @@
         <v>315</v>
       </c>
       <c r="B627" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F627">
         <v>4</v>
@@ -15790,10 +15650,10 @@
         <v>355</v>
       </c>
       <c r="B628" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F628">
         <v>4</v>
@@ -15810,10 +15670,10 @@
         <v>400</v>
       </c>
       <c r="B629" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F629">
         <v>4</v>
@@ -15830,10 +15690,10 @@
         <v>450</v>
       </c>
       <c r="B630" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F630">
         <v>4</v>
@@ -15850,10 +15710,10 @@
         <v>500</v>
       </c>
       <c r="B631" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F631">
         <v>4</v>
@@ -15870,10 +15730,10 @@
         <v>630</v>
       </c>
       <c r="B632" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F632">
         <v>4</v>
@@ -15890,10 +15750,10 @@
         <v>710</v>
       </c>
       <c r="B633" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F633">
         <v>4</v>
@@ -15910,10 +15770,10 @@
         <v>800</v>
       </c>
       <c r="B634" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F634">
         <v>4</v>
@@ -15930,10 +15790,10 @@
         <v>900</v>
       </c>
       <c r="B635" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C635" s="3" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="F635">
         <v>4</v>
@@ -15950,10 +15810,10 @@
         <v>1000</v>
       </c>
       <c r="B636" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F636">
         <v>4</v>
@@ -15970,10 +15830,10 @@
         <v>110</v>
       </c>
       <c r="B637" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C637" s="3" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F637">
         <v>8</v>
@@ -15990,10 +15850,10 @@
         <v>125</v>
       </c>
       <c r="B638" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C638" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F638">
         <v>8</v>
@@ -16010,10 +15870,10 @@
         <v>160</v>
       </c>
       <c r="B639" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C639" s="3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F639">
         <v>8</v>
@@ -16030,10 +15890,10 @@
         <v>200</v>
       </c>
       <c r="B640" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C640" s="3" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F640">
         <v>8</v>
@@ -16050,10 +15910,10 @@
         <v>250</v>
       </c>
       <c r="B641" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C641" s="3" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F641">
         <v>8</v>
@@ -16070,10 +15930,10 @@
         <v>315</v>
       </c>
       <c r="B642" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C642" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F642">
         <v>8</v>
@@ -16090,10 +15950,10 @@
         <v>355</v>
       </c>
       <c r="B643" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C643" s="3" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F643">
         <v>8</v>
@@ -16110,10 +15970,10 @@
         <v>400</v>
       </c>
       <c r="B644" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C644" s="3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F644">
         <v>8</v>
@@ -16130,10 +15990,10 @@
         <v>450</v>
       </c>
       <c r="B645" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C645" s="3" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F645">
         <v>8</v>
@@ -16150,10 +16010,10 @@
         <v>500</v>
       </c>
       <c r="B646" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C646" s="3" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F646">
         <v>8</v>
@@ -16170,10 +16030,10 @@
         <v>630</v>
       </c>
       <c r="B647" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C647" s="3" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F647">
         <v>8</v>
@@ -16190,10 +16050,10 @@
         <v>710</v>
       </c>
       <c r="B648" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C648" s="3" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F648">
         <v>8</v>
@@ -16210,10 +16070,10 @@
         <v>800</v>
       </c>
       <c r="B649" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C649" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F649">
         <v>8</v>
@@ -16230,10 +16090,10 @@
         <v>900</v>
       </c>
       <c r="B650" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C650" s="3" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="F650">
         <v>8</v>
@@ -16247,10 +16107,10 @@
         <v>1000</v>
       </c>
       <c r="B651" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C651" s="3" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F651">
         <v>8</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My DATA\program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB77959-C80B-45C3-90B4-BF1E0C88A71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3380DE-9FFE-4662-A50C-5C31D02025B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HDPE" sheetId="1" r:id="rId1"/>
     <sheet name="UPVC" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HDPE!$A$1:$E$241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HDPE!$A$1:$E$251</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="15">
   <si>
     <t>Diameter</t>
   </si>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -952,35 +952,41 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20</v>
+        <v>1400</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
+      </c>
+      <c r="E32">
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>25</v>
+        <v>1600</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
+      </c>
+      <c r="E33">
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -994,7 +1000,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -1005,13 +1011,10 @@
       <c r="D35" t="s">
         <v>4</v>
       </c>
-      <c r="E35">
-        <v>0.22700000000000001</v>
-      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -1022,13 +1025,10 @@
       <c r="D36" t="s">
         <v>4</v>
       </c>
-      <c r="E36">
-        <v>0.314</v>
-      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -1040,12 +1040,12 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>0.49399999999999999</v>
+        <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -1057,12 +1057,12 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>0.67500000000000004</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -1074,12 +1074,12 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>0.97799999999999998</v>
+        <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -1091,12 +1091,12 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>1.43</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -1108,12 +1108,12 @@
         <v>4</v>
       </c>
       <c r="E41">
-        <v>1.84</v>
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -1125,12 +1125,12 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>2.3199999999999998</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -1142,12 +1142,12 @@
         <v>4</v>
       </c>
       <c r="E43">
-        <v>3.04</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -1159,12 +1159,12 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>3.79</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -1176,12 +1176,12 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>4.6900000000000004</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -1193,12 +1193,12 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>5.89</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -1210,12 +1210,12 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>7.3</v>
+        <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -1227,12 +1227,12 @@
         <v>4</v>
       </c>
       <c r="E48">
-        <v>9.1</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>315</v>
+        <v>250</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -1244,12 +1244,12 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>11.6</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>355</v>
+        <v>280</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -1261,12 +1261,12 @@
         <v>4</v>
       </c>
       <c r="E50">
-        <v>14.6</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>400</v>
+        <v>315</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -1278,12 +1278,12 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <v>18.600000000000001</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>450</v>
+        <v>355</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -1295,12 +1295,12 @@
         <v>4</v>
       </c>
       <c r="E52">
-        <v>23.5</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -1312,12 +1312,12 @@
         <v>4</v>
       </c>
       <c r="E53">
-        <v>28.9</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -1329,12 +1329,12 @@
         <v>4</v>
       </c>
       <c r="E54">
-        <v>36.200000000000003</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>630</v>
+        <v>500</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -1346,12 +1346,12 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>45.9</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>710</v>
+        <v>560</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -1363,12 +1363,12 @@
         <v>4</v>
       </c>
       <c r="E56">
-        <v>58.4</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>800</v>
+        <v>630</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -1380,12 +1380,12 @@
         <v>4</v>
       </c>
       <c r="E57">
-        <v>73.900000000000006</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>900</v>
+        <v>710</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -1397,12 +1397,12 @@
         <v>4</v>
       </c>
       <c r="E58">
-        <v>93.4</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -1414,12 +1414,12 @@
         <v>4</v>
       </c>
       <c r="E59">
-        <v>115</v>
+        <v>73.900000000000006</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -1431,12 +1431,12 @@
         <v>4</v>
       </c>
       <c r="E60">
-        <v>134</v>
+        <v>93.4</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -1448,71 +1448,80 @@
         <v>4</v>
       </c>
       <c r="E61">
-        <v>166</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>20</v>
+        <v>1100</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
+      </c>
+      <c r="E62">
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>25</v>
+        <v>1200</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
+      </c>
+      <c r="E63">
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>32</v>
+        <v>1400</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
+      </c>
+      <c r="E64">
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>40</v>
+        <v>1600</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
       </c>
       <c r="E65">
-        <v>0.23899999999999999</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -1523,13 +1532,10 @@
       <c r="D66" t="s">
         <v>4</v>
       </c>
-      <c r="E66">
-        <v>0.374</v>
-      </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -1540,13 +1546,10 @@
       <c r="D67" t="s">
         <v>4</v>
       </c>
-      <c r="E67">
-        <v>0.57999999999999996</v>
-      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -1557,13 +1560,10 @@
       <c r="D68" t="s">
         <v>4</v>
       </c>
-      <c r="E68">
-        <v>0.82799999999999996</v>
-      </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -1575,12 +1575,12 @@
         <v>4</v>
       </c>
       <c r="E69">
-        <v>1.18</v>
+        <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -1592,12 +1592,12 @@
         <v>4</v>
       </c>
       <c r="E70">
-        <v>1.77</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -1609,12 +1609,12 @@
         <v>4</v>
       </c>
       <c r="E71">
-        <v>2.27</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -1626,12 +1626,12 @@
         <v>4</v>
       </c>
       <c r="E72">
-        <v>2.83</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -1643,12 +1643,12 @@
         <v>4</v>
       </c>
       <c r="E73">
-        <v>3.72</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -1660,12 +1660,12 @@
         <v>4</v>
       </c>
       <c r="E74">
-        <v>4.67</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -1677,12 +1677,12 @@
         <v>4</v>
       </c>
       <c r="E75">
-        <v>5.78</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -1694,12 +1694,12 @@
         <v>4</v>
       </c>
       <c r="E76">
-        <v>7.3</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="B77">
         <v>8</v>
@@ -1711,12 +1711,12 @@
         <v>4</v>
       </c>
       <c r="E77">
-        <v>8.93</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -1728,12 +1728,12 @@
         <v>4</v>
       </c>
       <c r="E78">
-        <v>11.3</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="B79">
         <v>8</v>
@@ -1745,12 +1745,12 @@
         <v>4</v>
       </c>
       <c r="E79">
-        <v>14.2</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>355</v>
+        <v>225</v>
       </c>
       <c r="B80">
         <v>8</v>
@@ -1762,12 +1762,12 @@
         <v>4</v>
       </c>
       <c r="E80">
-        <v>18</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="B81">
         <v>8</v>
@@ -1779,12 +1779,12 @@
         <v>4</v>
       </c>
       <c r="E81">
-        <v>22.9</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="B82">
         <v>8</v>
@@ -1796,12 +1796,12 @@
         <v>4</v>
       </c>
       <c r="E82">
-        <v>28.9</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>500</v>
+        <v>315</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -1813,12 +1813,12 @@
         <v>4</v>
       </c>
       <c r="E83">
-        <v>35.700000000000003</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>560</v>
+        <v>355</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -1830,12 +1830,12 @@
         <v>4</v>
       </c>
       <c r="E84">
-        <v>44.7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>630</v>
+        <v>400</v>
       </c>
       <c r="B85">
         <v>8</v>
@@ -1847,12 +1847,12 @@
         <v>4</v>
       </c>
       <c r="E85">
-        <v>56.4</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>710</v>
+        <v>450</v>
       </c>
       <c r="B86">
         <v>8</v>
@@ -1864,12 +1864,12 @@
         <v>4</v>
       </c>
       <c r="E86">
-        <v>71.8</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="B87">
         <v>8</v>
@@ -1881,12 +1881,12 @@
         <v>4</v>
       </c>
       <c r="E87">
-        <v>91.1</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>900</v>
+        <v>560</v>
       </c>
       <c r="B88">
         <v>8</v>
@@ -1898,12 +1898,12 @@
         <v>4</v>
       </c>
       <c r="E88">
-        <v>115</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>1000</v>
+        <v>630</v>
       </c>
       <c r="B89">
         <v>8</v>
@@ -1915,12 +1915,12 @@
         <v>4</v>
       </c>
       <c r="E89">
-        <v>142</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>1100</v>
+        <v>710</v>
       </c>
       <c r="B90">
         <v>8</v>
@@ -1932,12 +1932,12 @@
         <v>4</v>
       </c>
       <c r="E90">
-        <v>164</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="B91">
         <v>8</v>
@@ -1949,111 +1949,114 @@
         <v>4</v>
       </c>
       <c r="E91">
-        <v>205</v>
+        <v>91.1</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C92">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
+      </c>
+      <c r="E92">
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C93">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
       </c>
       <c r="E93">
-        <v>0.13700000000000001</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>32</v>
+        <v>1100</v>
       </c>
       <c r="B94">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
       </c>
       <c r="E94">
-        <v>0.187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C95">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s">
         <v>4</v>
       </c>
       <c r="E95">
-        <v>0.29499999999999998</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>50</v>
+        <v>1400</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
       </c>
       <c r="E96">
-        <v>0.45300000000000001</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>63</v>
+        <v>1600</v>
       </c>
       <c r="B97">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
       </c>
       <c r="E97">
-        <v>0.72099999999999997</v>
+        <v>364</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B98">
         <v>10</v>
@@ -2064,13 +2067,10 @@
       <c r="D98" t="s">
         <v>4</v>
       </c>
-      <c r="E98">
-        <v>1.02</v>
-      </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="B99">
         <v>10</v>
@@ -2082,12 +2082,12 @@
         <v>4</v>
       </c>
       <c r="E99">
-        <v>1.46</v>
+        <v>0.13700000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="B100">
         <v>10</v>
@@ -2099,12 +2099,12 @@
         <v>4</v>
       </c>
       <c r="E100">
-        <v>2.17</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="B101">
         <v>10</v>
@@ -2116,12 +2116,12 @@
         <v>4</v>
       </c>
       <c r="E101">
-        <v>2.76</v>
+        <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="B102">
         <v>10</v>
@@ -2133,12 +2133,12 @@
         <v>4</v>
       </c>
       <c r="E102">
-        <v>3.46</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="B103">
         <v>10</v>
@@ -2150,12 +2150,12 @@
         <v>4</v>
       </c>
       <c r="E103">
-        <v>4.5199999999999996</v>
+        <v>0.72099999999999997</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="B104">
         <v>10</v>
@@ -2167,12 +2167,12 @@
         <v>4</v>
       </c>
       <c r="E104">
-        <v>5.71</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="B105">
         <v>10</v>
@@ -2184,12 +2184,12 @@
         <v>4</v>
       </c>
       <c r="E105">
-        <v>7.05</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="B106">
         <v>10</v>
@@ -2201,12 +2201,12 @@
         <v>4</v>
       </c>
       <c r="E106">
-        <v>8.93</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="B107">
         <v>10</v>
@@ -2218,12 +2218,12 @@
         <v>4</v>
       </c>
       <c r="E107">
-        <v>11</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="B108">
         <v>10</v>
@@ -2235,12 +2235,12 @@
         <v>4</v>
       </c>
       <c r="E108">
-        <v>13.7</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>315</v>
+        <v>160</v>
       </c>
       <c r="B109">
         <v>10</v>
@@ -2252,12 +2252,12 @@
         <v>4</v>
       </c>
       <c r="E109">
-        <v>17.399999999999999</v>
+        <v>4.5199999999999996</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>355</v>
+        <v>180</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -2269,12 +2269,12 @@
         <v>4</v>
       </c>
       <c r="E110">
-        <v>22.1</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B111">
         <v>10</v>
@@ -2286,12 +2286,12 @@
         <v>4</v>
       </c>
       <c r="E111">
-        <v>28</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="B112">
         <v>10</v>
@@ -2303,12 +2303,12 @@
         <v>4</v>
       </c>
       <c r="E112">
-        <v>35.4</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="B113">
         <v>10</v>
@@ -2320,12 +2320,12 @@
         <v>4</v>
       </c>
       <c r="E113">
-        <v>43.8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="B114">
         <v>10</v>
@@ -2337,12 +2337,12 @@
         <v>4</v>
       </c>
       <c r="E114">
-        <v>54.8</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>630</v>
+        <v>315</v>
       </c>
       <c r="B115">
         <v>10</v>
@@ -2354,12 +2354,12 @@
         <v>4</v>
       </c>
       <c r="E115">
-        <v>69.400000000000006</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>710</v>
+        <v>355</v>
       </c>
       <c r="B116">
         <v>10</v>
@@ -2371,12 +2371,12 @@
         <v>4</v>
       </c>
       <c r="E116">
-        <v>88.1</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B117">
         <v>10</v>
@@ -2388,12 +2388,12 @@
         <v>4</v>
       </c>
       <c r="E117">
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="B118">
         <v>10</v>
@@ -2405,12 +2405,12 @@
         <v>4</v>
       </c>
       <c r="E118">
-        <v>141</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="B119">
         <v>10</v>
@@ -2422,12 +2422,12 @@
         <v>4</v>
       </c>
       <c r="E119">
-        <v>175</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>1100</v>
+        <v>560</v>
       </c>
       <c r="B120">
         <v>10</v>
@@ -2439,12 +2439,12 @@
         <v>4</v>
       </c>
       <c r="E120">
-        <v>200</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>1200</v>
+        <v>630</v>
       </c>
       <c r="B121">
         <v>10</v>
@@ -2456,148 +2456,148 @@
         <v>4</v>
       </c>
       <c r="E121">
-        <v>250</v>
+        <v>69.400000000000006</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>20</v>
+        <v>710</v>
       </c>
       <c r="B122">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="D122" t="s">
         <v>4</v>
       </c>
       <c r="E122">
-        <v>0.107</v>
+        <v>88.1</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="B123">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="C123">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="D123" t="s">
         <v>4</v>
       </c>
       <c r="E123">
-        <v>0.14399999999999999</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>32</v>
+        <v>900</v>
       </c>
       <c r="B124">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="C124">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="D124" t="s">
         <v>4</v>
       </c>
       <c r="E124">
-        <v>0.23200000000000001</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="B125">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="C125">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
         <v>4</v>
       </c>
       <c r="E125">
-        <v>0.35599999999999998</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>50</v>
+        <v>1100</v>
       </c>
       <c r="B126">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="C126">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="D126" t="s">
         <v>4</v>
       </c>
       <c r="E126">
-        <v>0.54900000000000004</v>
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>63</v>
+        <v>1200</v>
       </c>
       <c r="B127">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="C127">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="D127" t="s">
         <v>4</v>
       </c>
       <c r="E127">
-        <v>0.873</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>75</v>
+        <v>1400</v>
       </c>
       <c r="B128">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="C128">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="D128" t="s">
         <v>4</v>
       </c>
       <c r="E128">
-        <v>1.24</v>
+        <v>347</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>90</v>
+        <v>1600</v>
       </c>
       <c r="B129">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="C129">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
       </c>
       <c r="E129">
-        <v>1.77</v>
+        <v>453</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="B130">
         <v>12.5</v>
@@ -2609,12 +2609,12 @@
         <v>4</v>
       </c>
       <c r="E130">
-        <v>2.62</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="B131">
         <v>12.5</v>
@@ -2626,12 +2626,12 @@
         <v>4</v>
       </c>
       <c r="E131">
-        <v>3.37</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="B132">
         <v>12.5</v>
@@ -2643,12 +2643,12 @@
         <v>4</v>
       </c>
       <c r="E132">
-        <v>4.22</v>
+        <v>0.23200000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="B133">
         <v>12.5</v>
@@ -2660,12 +2660,12 @@
         <v>4</v>
       </c>
       <c r="E133">
-        <v>5.5</v>
+        <v>0.35599999999999998</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="B134">
         <v>12.5</v>
@@ -2677,12 +2677,12 @@
         <v>4</v>
       </c>
       <c r="E134">
-        <v>6.98</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="B135">
         <v>12.5</v>
@@ -2694,12 +2694,12 @@
         <v>4</v>
       </c>
       <c r="E135">
-        <v>8.56</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="B136">
         <v>12.5</v>
@@ -2711,12 +2711,12 @@
         <v>4</v>
       </c>
       <c r="E136">
-        <v>10.9</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="B137">
         <v>12.5</v>
@@ -2728,12 +2728,12 @@
         <v>4</v>
       </c>
       <c r="E137">
-        <v>13.4</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="B138">
         <v>12.5</v>
@@ -2745,12 +2745,12 @@
         <v>4</v>
       </c>
       <c r="E138">
-        <v>16.8</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>315</v>
+        <v>125</v>
       </c>
       <c r="B139">
         <v>12.5</v>
@@ -2762,12 +2762,12 @@
         <v>4</v>
       </c>
       <c r="E139">
-        <v>21.2</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>355</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>12.5</v>
@@ -2779,12 +2779,12 @@
         <v>4</v>
       </c>
       <c r="E140">
-        <v>26.9</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="B141">
         <v>12.5</v>
@@ -2796,12 +2796,12 @@
         <v>4</v>
       </c>
       <c r="E141">
-        <v>34.1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="B142">
         <v>12.5</v>
@@ -2813,12 +2813,12 @@
         <v>4</v>
       </c>
       <c r="E142">
-        <v>43.2</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="B143">
         <v>12.5</v>
@@ -2830,12 +2830,12 @@
         <v>4</v>
       </c>
       <c r="E143">
-        <v>53.3</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>560</v>
+        <v>225</v>
       </c>
       <c r="B144">
         <v>12.5</v>
@@ -2847,12 +2847,12 @@
         <v>4</v>
       </c>
       <c r="E144">
-        <v>66.900000000000006</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>630</v>
+        <v>250</v>
       </c>
       <c r="B145">
         <v>12.5</v>
@@ -2864,12 +2864,12 @@
         <v>4</v>
       </c>
       <c r="E145">
-        <v>84.6</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>710</v>
+        <v>280</v>
       </c>
       <c r="B146">
         <v>12.5</v>
@@ -2881,12 +2881,12 @@
         <v>4</v>
       </c>
       <c r="E146">
-        <v>107</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>800</v>
+        <v>315</v>
       </c>
       <c r="B147">
         <v>12.5</v>
@@ -2898,12 +2898,12 @@
         <v>4</v>
       </c>
       <c r="E147">
-        <v>136</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>900</v>
+        <v>355</v>
       </c>
       <c r="B148">
         <v>12.5</v>
@@ -2915,12 +2915,12 @@
         <v>4</v>
       </c>
       <c r="E148">
-        <v>172</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="B149">
         <v>12.5</v>
@@ -2932,12 +2932,12 @@
         <v>4</v>
       </c>
       <c r="E149">
-        <v>203</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="B150">
         <v>12.5</v>
@@ -2949,12 +2949,12 @@
         <v>4</v>
       </c>
       <c r="E150">
-        <v>244</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="B151">
         <v>12.5</v>
@@ -2965,180 +2965,183 @@
       <c r="D151" t="s">
         <v>4</v>
       </c>
+      <c r="E151">
+        <v>53.3</v>
+      </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>20</v>
+        <v>560</v>
       </c>
       <c r="B152">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="C152">
-        <v>11</v>
+        <v>13.6</v>
       </c>
       <c r="D152" t="s">
         <v>4</v>
       </c>
       <c r="E152">
-        <v>0.112</v>
+        <v>66.900000000000006</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>25</v>
+        <v>630</v>
       </c>
       <c r="B153">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="C153">
-        <v>11</v>
+        <v>13.6</v>
       </c>
       <c r="D153" t="s">
         <v>4</v>
       </c>
       <c r="E153">
-        <v>0.17100000000000001</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>32</v>
+        <v>710</v>
       </c>
       <c r="B154">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="C154">
-        <v>11</v>
+        <v>13.6</v>
       </c>
       <c r="D154" t="s">
         <v>4</v>
       </c>
       <c r="E154">
-        <v>0.27200000000000002</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="B155">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <v>13.6</v>
       </c>
       <c r="D155" t="s">
         <v>4</v>
       </c>
       <c r="E155">
-        <v>0.43</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="B156">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="C156">
-        <v>11</v>
+        <v>13.6</v>
       </c>
       <c r="D156" t="s">
         <v>4</v>
       </c>
       <c r="E156">
-        <v>0.66600000000000004</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>63</v>
+        <v>1000</v>
       </c>
       <c r="B157">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="C157">
-        <v>11</v>
+        <v>13.6</v>
       </c>
       <c r="D157" t="s">
         <v>4</v>
       </c>
       <c r="E157">
-        <v>1.05</v>
+        <v>203</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>75</v>
+        <v>1100</v>
       </c>
       <c r="B158">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <v>13.6</v>
       </c>
       <c r="D158" t="s">
         <v>4</v>
       </c>
       <c r="E158">
-        <v>1.47</v>
+        <v>244</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>90</v>
+        <v>1200</v>
       </c>
       <c r="B159">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="C159">
-        <v>11</v>
+        <v>13.6</v>
       </c>
       <c r="D159" t="s">
         <v>4</v>
       </c>
       <c r="E159">
-        <v>2.12</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>110</v>
+        <v>1400</v>
       </c>
       <c r="B160">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="C160">
-        <v>11</v>
+        <v>13.6</v>
       </c>
       <c r="D160" t="s">
         <v>4</v>
       </c>
       <c r="E160">
-        <v>3.14</v>
+        <v>430</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <v>125</v>
+        <v>1600</v>
       </c>
       <c r="B161">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="C161">
-        <v>11</v>
+        <v>13.6</v>
       </c>
       <c r="D161" t="s">
         <v>4</v>
       </c>
       <c r="E161">
-        <v>4.08</v>
+        <v>561</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="B162">
         <v>16</v>
@@ -3150,12 +3153,12 @@
         <v>4</v>
       </c>
       <c r="E162">
-        <v>5.08</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="B163">
         <v>16</v>
@@ -3167,12 +3170,12 @@
         <v>4</v>
       </c>
       <c r="E163">
-        <v>6.67</v>
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="B164">
         <v>16</v>
@@ -3184,12 +3187,12 @@
         <v>4</v>
       </c>
       <c r="E164">
-        <v>8.42</v>
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="B165">
         <v>16</v>
@@ -3201,12 +3204,12 @@
         <v>4</v>
       </c>
       <c r="E165">
-        <v>10.4</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="B166">
         <v>16</v>
@@ -3218,12 +3221,12 @@
         <v>4</v>
       </c>
       <c r="E166">
-        <v>13.1</v>
+        <v>0.66600000000000004</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167">
-        <v>250</v>
+        <v>63</v>
       </c>
       <c r="B167">
         <v>16</v>
@@ -3235,12 +3238,12 @@
         <v>4</v>
       </c>
       <c r="E167">
-        <v>16.2</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="B168">
         <v>16</v>
@@ -3252,12 +3255,12 @@
         <v>4</v>
       </c>
       <c r="E168">
-        <v>20.3</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169">
-        <v>315</v>
+        <v>90</v>
       </c>
       <c r="B169">
         <v>16</v>
@@ -3269,12 +3272,12 @@
         <v>4</v>
       </c>
       <c r="E169">
-        <v>25.6</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170">
-        <v>355</v>
+        <v>110</v>
       </c>
       <c r="B170">
         <v>16</v>
@@ -3286,12 +3289,12 @@
         <v>4</v>
       </c>
       <c r="E170">
-        <v>32.5</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="B171">
         <v>16</v>
@@ -3303,12 +3306,12 @@
         <v>4</v>
       </c>
       <c r="E171">
-        <v>41.3</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="B172">
         <v>16</v>
@@ -3320,12 +3323,12 @@
         <v>4</v>
       </c>
       <c r="E172">
-        <v>52.3</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="B173">
         <v>16</v>
@@ -3337,12 +3340,12 @@
         <v>4</v>
       </c>
       <c r="E173">
-        <v>64.5</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <v>560</v>
+        <v>180</v>
       </c>
       <c r="B174">
         <v>16</v>
@@ -3354,12 +3357,12 @@
         <v>4</v>
       </c>
       <c r="E174">
-        <v>80.8</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>630</v>
+        <v>200</v>
       </c>
       <c r="B175">
         <v>16</v>
@@ -3371,12 +3374,12 @@
         <v>4</v>
       </c>
       <c r="E175">
-        <v>102</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>710</v>
+        <v>225</v>
       </c>
       <c r="B176">
         <v>16</v>
@@ -3388,12 +3391,12 @@
         <v>4</v>
       </c>
       <c r="E176">
-        <v>130</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="B177">
         <v>16</v>
@@ -3405,12 +3408,12 @@
         <v>4</v>
       </c>
       <c r="E177">
-        <v>159.35</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="B178">
         <v>16</v>
@@ -3421,10 +3424,13 @@
       <c r="D178" t="s">
         <v>4</v>
       </c>
+      <c r="E178">
+        <v>20.3</v>
+      </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>1000</v>
+        <v>315</v>
       </c>
       <c r="B179">
         <v>16</v>
@@ -3435,10 +3441,13 @@
       <c r="D179" t="s">
         <v>4</v>
       </c>
+      <c r="E179">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>1100</v>
+        <v>355</v>
       </c>
       <c r="B180">
         <v>16</v>
@@ -3449,10 +3458,13 @@
       <c r="D180" t="s">
         <v>4</v>
       </c>
+      <c r="E180">
+        <v>32.5</v>
+      </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="B181">
         <v>16</v>
@@ -3463,180 +3475,171 @@
       <c r="D181" t="s">
         <v>4</v>
       </c>
+      <c r="E181">
+        <v>41.3</v>
+      </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="B182">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C182">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D182" t="s">
         <v>4</v>
       </c>
       <c r="E182">
-        <v>0.13300000000000001</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="B183">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C183">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D183" t="s">
         <v>4</v>
       </c>
       <c r="E183">
-        <v>0.2</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>32</v>
+        <v>560</v>
       </c>
       <c r="B184">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C184">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D184" t="s">
         <v>4</v>
       </c>
       <c r="E184">
-        <v>0.32700000000000001</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>40</v>
+        <v>630</v>
       </c>
       <c r="B185">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C185">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D185" t="s">
         <v>4</v>
       </c>
       <c r="E185">
-        <v>0.50900000000000001</v>
+        <v>102</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>50</v>
+        <v>710</v>
       </c>
       <c r="B186">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C186">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D186" t="s">
         <v>4</v>
       </c>
       <c r="E186">
-        <v>0.78800000000000003</v>
+        <v>130</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>63</v>
+        <v>800</v>
       </c>
       <c r="B187">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C187">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D187" t="s">
         <v>4</v>
       </c>
       <c r="E187">
-        <v>1.26</v>
+        <v>159.35</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>75</v>
+        <v>900</v>
       </c>
       <c r="B188">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C188">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D188" t="s">
         <v>4</v>
-      </c>
-      <c r="E188">
-        <v>1.76</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="B189">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C189">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D189" t="s">
         <v>4</v>
-      </c>
-      <c r="E189">
-        <v>2.54</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="B190">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C190">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D190" t="s">
         <v>4</v>
-      </c>
-      <c r="E190">
-        <v>3.78</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <v>125</v>
+        <v>1200</v>
       </c>
       <c r="B191">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C191">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D191" t="s">
         <v>4</v>
-      </c>
-      <c r="E191">
-        <v>4.87</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="B192">
         <v>20</v>
@@ -3648,12 +3651,12 @@
         <v>4</v>
       </c>
       <c r="E192">
-        <v>6.11</v>
+        <v>0.13300000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="B193">
         <v>20</v>
@@ -3665,12 +3668,12 @@
         <v>4</v>
       </c>
       <c r="E193">
-        <v>7.96</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="B194">
         <v>20</v>
@@ -3682,12 +3685,12 @@
         <v>4</v>
       </c>
       <c r="E194">
-        <v>10.1</v>
+        <v>0.32700000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="B195">
         <v>20</v>
@@ -3699,12 +3702,12 @@
         <v>4</v>
       </c>
       <c r="E195">
-        <v>12.4</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="B196">
         <v>20</v>
@@ -3716,12 +3719,12 @@
         <v>4</v>
       </c>
       <c r="E196">
-        <v>15.8</v>
+        <v>0.78800000000000003</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>250</v>
+        <v>63</v>
       </c>
       <c r="B197">
         <v>20</v>
@@ -3733,12 +3736,12 @@
         <v>4</v>
       </c>
       <c r="E197">
-        <v>19.399999999999999</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="B198">
         <v>20</v>
@@ -3750,12 +3753,12 @@
         <v>4</v>
       </c>
       <c r="E198">
-        <v>24.3</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>315</v>
+        <v>90</v>
       </c>
       <c r="B199">
         <v>20</v>
@@ -3767,12 +3770,12 @@
         <v>4</v>
       </c>
       <c r="E199">
-        <v>30.8</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>355</v>
+        <v>110</v>
       </c>
       <c r="B200">
         <v>20</v>
@@ -3784,12 +3787,12 @@
         <v>4</v>
       </c>
       <c r="E200">
-        <v>39.1</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="B201">
         <v>20</v>
@@ -3801,12 +3804,12 @@
         <v>4</v>
       </c>
       <c r="E201">
-        <v>49.6</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="B202">
         <v>20</v>
@@ -3818,12 +3821,12 @@
         <v>4</v>
       </c>
       <c r="E202">
-        <v>62.7</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="B203">
         <v>20</v>
@@ -3835,12 +3838,12 @@
         <v>4</v>
       </c>
       <c r="E203">
-        <v>77.3</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204">
-        <v>560</v>
+        <v>180</v>
       </c>
       <c r="B204">
         <v>20</v>
@@ -3852,12 +3855,12 @@
         <v>4</v>
       </c>
       <c r="E204">
-        <v>97</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205">
-        <v>630</v>
+        <v>200</v>
       </c>
       <c r="B205">
         <v>20</v>
@@ -3869,12 +3872,12 @@
         <v>4</v>
       </c>
       <c r="E205">
-        <v>123.8</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
-        <v>710</v>
+        <v>225</v>
       </c>
       <c r="B206">
         <v>20</v>
@@ -3886,12 +3889,12 @@
         <v>4</v>
       </c>
       <c r="E206">
-        <v>157.6</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="B207">
         <v>20</v>
@@ -3902,10 +3905,13 @@
       <c r="D207" t="s">
         <v>4</v>
       </c>
+      <c r="E207">
+        <v>19.399999999999999</v>
+      </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="B208">
         <v>20</v>
@@ -3916,10 +3922,13 @@
       <c r="D208" t="s">
         <v>4</v>
       </c>
+      <c r="E208">
+        <v>24.3</v>
+      </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209">
-        <v>1000</v>
+        <v>315</v>
       </c>
       <c r="B209">
         <v>20</v>
@@ -3930,10 +3939,13 @@
       <c r="D209" t="s">
         <v>4</v>
       </c>
+      <c r="E209">
+        <v>30.8</v>
+      </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210">
-        <v>1100</v>
+        <v>355</v>
       </c>
       <c r="B210">
         <v>20</v>
@@ -3944,10 +3956,13 @@
       <c r="D210" t="s">
         <v>4</v>
       </c>
+      <c r="E210">
+        <v>39.1</v>
+      </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="B211">
         <v>20</v>
@@ -3958,180 +3973,168 @@
       <c r="D211" t="s">
         <v>4</v>
       </c>
+      <c r="E211">
+        <v>49.6</v>
+      </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
+        <v>450</v>
+      </c>
+      <c r="B212">
         <v>20</v>
       </c>
-      <c r="B212">
-        <v>25</v>
-      </c>
       <c r="C212">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
         <v>4</v>
       </c>
       <c r="E212">
-        <v>0.16400000000000001</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="B213">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C213">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
         <v>4</v>
       </c>
       <c r="E213">
-        <v>0.24299999999999999</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
-        <v>32</v>
+        <v>560</v>
       </c>
       <c r="B214">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C214">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
         <v>4</v>
       </c>
       <c r="E214">
-        <v>0.39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>40</v>
+        <v>630</v>
       </c>
       <c r="B215">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C215">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
         <v>4</v>
       </c>
       <c r="E215">
-        <v>0.60699999999999998</v>
+        <v>123.8</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>50</v>
+        <v>710</v>
       </c>
       <c r="B216">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C216">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
         <v>4</v>
       </c>
       <c r="E216">
-        <v>0.94499999999999995</v>
+        <v>157.6</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>63</v>
+        <v>800</v>
       </c>
       <c r="B217">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C217">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
         <v>4</v>
-      </c>
-      <c r="E217">
-        <v>1.49</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218">
-        <v>75</v>
+        <v>900</v>
       </c>
       <c r="B218">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C218">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
         <v>4</v>
-      </c>
-      <c r="E218">
-        <v>2.12</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="B219">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C219">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
         <v>4</v>
-      </c>
-      <c r="E219">
-        <v>3.03</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="B220">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C220">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
         <v>4</v>
-      </c>
-      <c r="E220">
-        <v>4.54</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221">
-        <v>125</v>
+        <v>1200</v>
       </c>
       <c r="B221">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C221">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
         <v>4</v>
-      </c>
-      <c r="E221">
-        <v>5.84</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="B222">
         <v>25</v>
@@ -4143,12 +4146,12 @@
         <v>4</v>
       </c>
       <c r="E222">
-        <v>7.33</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="B223">
         <v>25</v>
@@ -4160,12 +4163,12 @@
         <v>4</v>
       </c>
       <c r="E223">
-        <v>9.5399999999999991</v>
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="B224">
         <v>25</v>
@@ -4177,12 +4180,12 @@
         <v>4</v>
       </c>
       <c r="E224">
-        <v>12.1</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="B225">
         <v>25</v>
@@ -4194,12 +4197,12 @@
         <v>4</v>
       </c>
       <c r="E225">
-        <v>14.9</v>
+        <v>0.60699999999999998</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="B226">
         <v>25</v>
@@ -4211,12 +4214,12 @@
         <v>4</v>
       </c>
       <c r="E226">
-        <v>18.8</v>
+        <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <v>250</v>
+        <v>63</v>
       </c>
       <c r="B227">
         <v>25</v>
@@ -4228,12 +4231,12 @@
         <v>4</v>
       </c>
       <c r="E227">
-        <v>23.3</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="B228">
         <v>25</v>
@@ -4245,12 +4248,12 @@
         <v>4</v>
       </c>
       <c r="E228">
-        <v>29.2</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
-        <v>315</v>
+        <v>90</v>
       </c>
       <c r="B229">
         <v>25</v>
@@ -4262,12 +4265,12 @@
         <v>4</v>
       </c>
       <c r="E229">
-        <v>36.9</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <v>355</v>
+        <v>110</v>
       </c>
       <c r="B230">
         <v>25</v>
@@ -4279,12 +4282,12 @@
         <v>4</v>
       </c>
       <c r="E230">
-        <v>46.8</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="B231">
         <v>25</v>
@@ -4296,12 +4299,12 @@
         <v>4</v>
       </c>
       <c r="E231">
-        <v>59.4</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="B232">
         <v>25</v>
@@ -4313,12 +4316,12 @@
         <v>4</v>
       </c>
       <c r="E232">
-        <v>75.2</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="B233">
         <v>25</v>
@@ -4330,12 +4333,12 @@
         <v>4</v>
       </c>
       <c r="E233">
-        <v>92.8</v>
+        <v>9.5399999999999991</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <v>560</v>
+        <v>180</v>
       </c>
       <c r="B234">
         <v>25</v>
@@ -4346,10 +4349,13 @@
       <c r="D234" t="s">
         <v>4</v>
       </c>
+      <c r="E234">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235">
-        <v>630</v>
+        <v>200</v>
       </c>
       <c r="B235">
         <v>25</v>
@@ -4360,10 +4366,13 @@
       <c r="D235" t="s">
         <v>4</v>
       </c>
+      <c r="E235">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236">
-        <v>710</v>
+        <v>225</v>
       </c>
       <c r="B236">
         <v>25</v>
@@ -4374,10 +4383,13 @@
       <c r="D236" t="s">
         <v>4</v>
       </c>
+      <c r="E236">
+        <v>18.8</v>
+      </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="B237">
         <v>25</v>
@@ -4388,10 +4400,13 @@
       <c r="D237" t="s">
         <v>4</v>
       </c>
+      <c r="E237">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="B238">
         <v>25</v>
@@ -4402,10 +4417,13 @@
       <c r="D238" t="s">
         <v>4</v>
       </c>
+      <c r="E238">
+        <v>29.2</v>
+      </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239">
-        <v>1000</v>
+        <v>315</v>
       </c>
       <c r="B239">
         <v>25</v>
@@ -4416,10 +4434,13 @@
       <c r="D239" t="s">
         <v>4</v>
       </c>
+      <c r="E239">
+        <v>36.9</v>
+      </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240">
-        <v>1100</v>
+        <v>355</v>
       </c>
       <c r="B240">
         <v>25</v>
@@ -4430,10 +4451,13 @@
       <c r="D240" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="E240">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="B241">
         <v>25</v>
@@ -4444,9 +4468,158 @@
       <c r="D241" t="s">
         <v>4</v>
       </c>
+      <c r="E241">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>450</v>
+      </c>
+      <c r="B242">
+        <v>25</v>
+      </c>
+      <c r="C242">
+        <v>7.4</v>
+      </c>
+      <c r="D242" t="s">
+        <v>4</v>
+      </c>
+      <c r="E242">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>500</v>
+      </c>
+      <c r="B243">
+        <v>25</v>
+      </c>
+      <c r="C243">
+        <v>7.4</v>
+      </c>
+      <c r="D243" t="s">
+        <v>4</v>
+      </c>
+      <c r="E243">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>560</v>
+      </c>
+      <c r="B244">
+        <v>25</v>
+      </c>
+      <c r="C244">
+        <v>7.4</v>
+      </c>
+      <c r="D244" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>630</v>
+      </c>
+      <c r="B245">
+        <v>25</v>
+      </c>
+      <c r="C245">
+        <v>7.4</v>
+      </c>
+      <c r="D245" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>710</v>
+      </c>
+      <c r="B246">
+        <v>25</v>
+      </c>
+      <c r="C246">
+        <v>7.4</v>
+      </c>
+      <c r="D246" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>800</v>
+      </c>
+      <c r="B247">
+        <v>25</v>
+      </c>
+      <c r="C247">
+        <v>7.4</v>
+      </c>
+      <c r="D247" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>900</v>
+      </c>
+      <c r="B248">
+        <v>25</v>
+      </c>
+      <c r="C248">
+        <v>7.4</v>
+      </c>
+      <c r="D248" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>1000</v>
+      </c>
+      <c r="B249">
+        <v>25</v>
+      </c>
+      <c r="C249">
+        <v>7.4</v>
+      </c>
+      <c r="D249" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>1100</v>
+      </c>
+      <c r="B250">
+        <v>25</v>
+      </c>
+      <c r="C250">
+        <v>7.4</v>
+      </c>
+      <c r="D250" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251">
+        <v>1200</v>
+      </c>
+      <c r="B251">
+        <v>25</v>
+      </c>
+      <c r="C251">
+        <v>7.4</v>
+      </c>
+      <c r="D251" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E241" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E251" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4456,7 +4629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2547AAC6-0615-4619-94AA-8DD0CAC05E44}">
   <dimension ref="A1:H651"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A607" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M613" sqref="M613"/>
     </sheetView>
